--- a/bin/sheets/main_db/teams/IND/PlayerPerformance_4083.xlsx
+++ b/bin/sheets/main_db/teams/IND/PlayerPerformance_4083.xlsx
@@ -7,7 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,6 +427,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4083</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Manish Krishnanand Pandey</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Right Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Right Arm Off Break</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -451,7 +516,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -503,7 +568,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3817</t>
+          <t>3817</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -543,7 +608,6 @@
           <t>2</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
           <t>12/01/2016</t>
@@ -551,7 +615,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3874</t>
+          <t>3874</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -603,7 +667,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3875</t>
+          <t>3875</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -655,7 +719,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3878</t>
+          <t>3878</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -695,7 +759,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
           <t>11/06/2016</t>
@@ -703,7 +766,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3895</t>
+          <t>3895</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -755,7 +818,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3897</t>
+          <t>3897</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -795,7 +858,6 @@
           <t>7</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
           <t>15/06/2016</t>
@@ -803,7 +865,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3899</t>
+          <t>3899</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -855,7 +917,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3951</t>
+          <t>3951</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -907,7 +969,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3952</t>
+          <t>3952</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -959,7 +1021,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3953</t>
+          <t>3953</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1011,7 +1073,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3954</t>
+          <t>3954</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1063,7 +1125,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3955</t>
+          <t>3955</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1115,7 +1177,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4064</t>
+          <t>4064</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1167,7 +1229,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4065</t>
+          <t>4065</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1219,7 +1281,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4067</t>
+          <t>4067</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1271,7 +1333,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4069</t>
+          <t>4069</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1323,7 +1385,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4071</t>
+          <t>4071</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1375,7 +1437,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4074</t>
+          <t>4074</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1427,7 +1489,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4076</t>
+          <t>4076</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1479,7 +1541,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4096</t>
+          <t>4096</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1519,7 +1581,6 @@
           <t>21</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
           <t>13/12/2017</t>
@@ -1527,7 +1588,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4098</t>
+          <t>4098</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1567,7 +1628,6 @@
           <t>22</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr">
         <is>
           <t>17/12/2017</t>
@@ -1575,7 +1635,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4099</t>
+          <t>4099</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1627,7 +1687,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4203</t>
+          <t>4203</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1679,7 +1739,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4399</t>
+          <t>4399</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1731,7 +1791,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4400</t>
+          <t>4400</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1783,7 +1843,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4410</t>
+          <t>4410</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1835,7 +1895,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4480</t>
+          <t>4480</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1887,7 +1947,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4482</t>
+          <t>4482</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1939,7 +1999,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4485</t>
+          <t>4485</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1970,6 +2030,581 @@
       <c r="J30" t="inlineStr">
         <is>
           <t>19</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3953</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>9.69%</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>3954</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>6</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>4.98%</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3955</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>5</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4064</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>6</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>13.33%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4065</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4067</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>4</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4069</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>4</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>1.19%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4071</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>6</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>12.24%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4074</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4076</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>4.53%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4096</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>5</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>1.79%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4098</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4099</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>7</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4203</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4399</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>6</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>0.59%</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4400</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>5</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2.77%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4410</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>6</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>14.19%</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4480</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>4</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>9.89%</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4482</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>4</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>13.36%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4485</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>4</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>4.89%</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/IND/PlayerPerformance_4083.xlsx
+++ b/bin/sheets/main_db/teams/IND/PlayerPerformance_4083.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Batting Extra" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/bin/sheets/main_db/teams/IND/PlayerPerformance_4083.xlsx
+++ b/bin/sheets/main_db/teams/IND/PlayerPerformance_4083.xlsx
@@ -2044,7 +2044,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2087,7 +2087,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>3953</t>
+          <t>3817</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -2095,17 +2095,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>9.69%</t>
+          <t>25.72%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -2117,27 +2117,15 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>3954</t>
+          <t>3874</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>4.98%</t>
-        </is>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2147,22 +2135,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>3955</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>5</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+          <t>3875</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
@@ -2173,27 +2151,13 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4064</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>6</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>13.33%</t>
-        </is>
-      </c>
+          <t>3878</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2203,10 +2167,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>4065</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
+          <t>3895</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
@@ -2219,7 +2185,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>4067</t>
+          <t>3897</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -2227,15 +2193,19 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>3.10%</t>
+        </is>
+      </c>
       <c r="F7" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2245,27 +2215,15 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>4069</t>
+          <t>3899</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>1.19%</t>
-        </is>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2275,27 +2233,13 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>4071</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>6</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>12.24%</t>
-        </is>
-      </c>
+          <t>3951</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2305,13 +2249,27 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>4074</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
+          <t>3952</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>8.05%</t>
+        </is>
+      </c>
       <c r="F10" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2321,7 +2279,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>4076</t>
+          <t>3953</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -2329,7 +2287,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -2339,7 +2297,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4.53%</t>
+          <t>9.69%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -2351,25 +2309,25 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>4096</t>
+          <t>3954</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.79%</t>
+          <t>4.98%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -2381,12 +2339,22 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>4098</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
+          <t>3955</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>5</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
@@ -2397,15 +2365,27 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>4099</t>
+          <t>4064</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7</v>
-      </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
+        <v>6</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>13.33%</t>
+        </is>
+      </c>
       <c r="F14" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2415,7 +2395,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>4203</t>
+          <t>4065</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
@@ -2431,11 +2411,11 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>4399</t>
+          <t>4067</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2447,11 +2427,7 @@
           <t>0</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>0.59%</t>
-        </is>
-      </c>
+      <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2461,15 +2437,15 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>4400</t>
+          <t>4069</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -2479,7 +2455,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2.77%</t>
+          <t>1.19%</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -2491,7 +2467,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>4410</t>
+          <t>4071</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -2499,7 +2475,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -2509,7 +2485,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>14.19%</t>
+          <t>12.24%</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -2521,27 +2497,13 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>4480</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>4</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>9.89%</t>
-        </is>
-      </c>
+          <t>4074</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2551,15 +2513,15 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>4482</t>
+          <t>4076</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -2569,7 +2531,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>13.36%</t>
+          <t>4.53%</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -2581,28 +2543,258 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
+          <t>4096</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>5</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>1.79%</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>4098</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>4099</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>7</v>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>4203</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>4399</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>6</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>0.59%</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>4400</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>5</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>2.77%</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>4410</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>6</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>14.19%</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>4480</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>4</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>9.89%</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>4482</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>4</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>13.36%</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
           <t>4485</t>
         </is>
       </c>
-      <c r="B21" t="n">
+      <c r="B30" t="n">
         <v>4</v>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>4.89%</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
